--- a/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B27"/>
+  <dimension ref="A1:B49"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -452,15 +452,15 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45060.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>300</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45299</v>
+        <v>45067.99999999999</v>
       </c>
       <c r="B3" t="n">
         <v>30</v>
@@ -468,39 +468,39 @@
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45306</v>
+        <v>45074.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>30</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45320</v>
+        <v>45081.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>90</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45327</v>
+        <v>45088.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45334</v>
+        <v>45095.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45341</v>
+        <v>45102.99999999999</v>
       </c>
       <c r="B8" t="n">
         <v>30</v>
@@ -508,7 +508,7 @@
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45348</v>
+        <v>45109.99999999999</v>
       </c>
       <c r="B9" t="n">
         <v>30</v>
@@ -516,47 +516,47 @@
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45355</v>
+        <v>45116.99999999999</v>
       </c>
       <c r="B10" t="n">
-        <v>140</v>
+        <v>30</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45362</v>
+        <v>45123.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45369</v>
+        <v>45130.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>130</v>
+        <v>110</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45376</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>160</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45383</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>20</v>
+        <v>50</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45390</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B15" t="n">
         <v>60</v>
@@ -564,97 +564,273 @@
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45404</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B16" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45411</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45418</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B18" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45453</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B19" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45516</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45544</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45551</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45558</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45565</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>120</v>
+        <v>300</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45572</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45579</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45593</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B27" t="n">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B49" t="n">
         <v>40</v>
       </c>
     </row>
@@ -669,7 +845,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B10"/>
+  <dimension ref="A1:B17"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -691,73 +867,129 @@
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
-        <v>45292</v>
+        <v>45077.99999999999</v>
       </c>
       <c r="B2" t="n">
-        <v>450</v>
+        <v>100</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
-        <v>45323</v>
+        <v>45107.99999999999</v>
       </c>
       <c r="B3" t="n">
-        <v>240</v>
+        <v>80</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
-        <v>45352</v>
+        <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>340</v>
+        <v>320</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
-        <v>45383</v>
+        <v>45199.99999999999</v>
       </c>
       <c r="B5" t="n">
-        <v>120</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
-        <v>45413</v>
+        <v>45230.99999999999</v>
       </c>
       <c r="B6" t="n">
-        <v>120</v>
+        <v>100</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
-        <v>45444</v>
+        <v>45260.99999999999</v>
       </c>
       <c r="B7" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
-        <v>45505</v>
+        <v>45291.99999999999</v>
       </c>
       <c r="B8" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
-        <v>45536</v>
+        <v>45322.99999999999</v>
       </c>
       <c r="B9" t="n">
-        <v>120</v>
+        <v>450</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
-        <v>45566</v>
+        <v>45351.99999999999</v>
       </c>
       <c r="B10" t="n">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>340</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45412.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45443.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45473.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45535.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45565.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45596.99999999999</v>
+      </c>
+      <c r="B17" t="n">
         <v>200</v>
       </c>
     </row>

--- a/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B49"/>
+  <dimension ref="A1:B47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -524,47 +524,47 @@
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
-        <v>45123.99999999999</v>
+        <v>45137.99999999999</v>
       </c>
       <c r="B11" t="n">
-        <v>20</v>
+        <v>160</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
-        <v>45130.99999999999</v>
+        <v>45186.99999999999</v>
       </c>
       <c r="B12" t="n">
-        <v>110</v>
+        <v>50</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
-        <v>45137.99999999999</v>
+        <v>45207.99999999999</v>
       </c>
       <c r="B13" t="n">
-        <v>160</v>
+        <v>60</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
-        <v>45186.99999999999</v>
+        <v>45214.99999999999</v>
       </c>
       <c r="B14" t="n">
-        <v>50</v>
+        <v>10</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
-        <v>45207.99999999999</v>
+        <v>45221.99999999999</v>
       </c>
       <c r="B15" t="n">
-        <v>60</v>
+        <v>20</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
-        <v>45214.99999999999</v>
+        <v>45228.99999999999</v>
       </c>
       <c r="B16" t="n">
         <v>10</v>
@@ -572,15 +572,15 @@
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
-        <v>45221.99999999999</v>
+        <v>45242.99999999999</v>
       </c>
       <c r="B17" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
-        <v>45228.99999999999</v>
+        <v>45249.99999999999</v>
       </c>
       <c r="B18" t="n">
         <v>10</v>
@@ -588,7 +588,7 @@
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
-        <v>45242.99999999999</v>
+        <v>45256.99999999999</v>
       </c>
       <c r="B19" t="n">
         <v>10</v>
@@ -596,151 +596,151 @@
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
-        <v>45249.99999999999</v>
+        <v>45270.99999999999</v>
       </c>
       <c r="B20" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
-        <v>45256.99999999999</v>
+        <v>45277.99999999999</v>
       </c>
       <c r="B21" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
-        <v>45270.99999999999</v>
+        <v>45298.99999999999</v>
       </c>
       <c r="B22" t="n">
-        <v>20</v>
+        <v>300</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
-        <v>45277.99999999999</v>
+        <v>45305.99999999999</v>
       </c>
       <c r="B23" t="n">
-        <v>20</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
-        <v>45298.99999999999</v>
+        <v>45312.99999999999</v>
       </c>
       <c r="B24" t="n">
-        <v>300</v>
+        <v>30</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
-        <v>45305.99999999999</v>
+        <v>45326.99999999999</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>90</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
-        <v>45312.99999999999</v>
+        <v>45333.99999999999</v>
       </c>
       <c r="B26" t="n">
-        <v>30</v>
+        <v>120</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
-        <v>45326.99999999999</v>
+        <v>45340.99999999999</v>
       </c>
       <c r="B27" t="n">
-        <v>90</v>
+        <v>60</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
-        <v>45333.99999999999</v>
+        <v>45347.99999999999</v>
       </c>
       <c r="B28" t="n">
-        <v>120</v>
+        <v>30</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
-        <v>45340.99999999999</v>
+        <v>45354.99999999999</v>
       </c>
       <c r="B29" t="n">
-        <v>60</v>
+        <v>30</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
-        <v>45347.99999999999</v>
+        <v>45361.99999999999</v>
       </c>
       <c r="B30" t="n">
-        <v>30</v>
+        <v>140</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
-        <v>45354.99999999999</v>
+        <v>45368.99999999999</v>
       </c>
       <c r="B31" t="n">
-        <v>30</v>
+        <v>60</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
-        <v>45361.99999999999</v>
+        <v>45375.99999999999</v>
       </c>
       <c r="B32" t="n">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
-        <v>45368.99999999999</v>
+        <v>45382.99999999999</v>
       </c>
       <c r="B33" t="n">
-        <v>60</v>
+        <v>10</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
-        <v>45375.99999999999</v>
+        <v>45389.99999999999</v>
       </c>
       <c r="B34" t="n">
-        <v>130</v>
+        <v>20</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
-        <v>45382.99999999999</v>
+        <v>45396.99999999999</v>
       </c>
       <c r="B35" t="n">
-        <v>10</v>
+        <v>60</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
-        <v>45389.99999999999</v>
+        <v>45410.99999999999</v>
       </c>
       <c r="B36" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
-        <v>45396.99999999999</v>
+        <v>45417.99999999999</v>
       </c>
       <c r="B37" t="n">
-        <v>60</v>
+        <v>80</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
-        <v>45410.99999999999</v>
+        <v>45424.99999999999</v>
       </c>
       <c r="B38" t="n">
         <v>40</v>
@@ -748,23 +748,23 @@
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
-        <v>45417.99999999999</v>
+        <v>45459.99999999999</v>
       </c>
       <c r="B39" t="n">
-        <v>80</v>
+        <v>20</v>
       </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
-        <v>45424.99999999999</v>
+        <v>45522.99999999999</v>
       </c>
       <c r="B40" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
-        <v>45459.99999999999</v>
+        <v>45550.99999999999</v>
       </c>
       <c r="B41" t="n">
         <v>20</v>
@@ -772,65 +772,49 @@
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
-        <v>45522.99999999999</v>
+        <v>45557.99999999999</v>
       </c>
       <c r="B42" t="n">
-        <v>20</v>
+        <v>60</v>
       </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
-        <v>45550.99999999999</v>
+        <v>45564.99999999999</v>
       </c>
       <c r="B43" t="n">
-        <v>20</v>
+        <v>40</v>
       </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
-        <v>45557.99999999999</v>
+        <v>45571.99999999999</v>
       </c>
       <c r="B44" t="n">
-        <v>60</v>
+        <v>120</v>
       </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
-        <v>45564.99999999999</v>
+        <v>45578.99999999999</v>
       </c>
       <c r="B45" t="n">
-        <v>40</v>
+        <v>20</v>
       </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
-        <v>45571.99999999999</v>
+        <v>45585.99999999999</v>
       </c>
       <c r="B46" t="n">
-        <v>120</v>
+        <v>20</v>
       </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
-        <v>45578.99999999999</v>
+        <v>45599.99999999999</v>
       </c>
       <c r="B47" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" s="2" t="n">
-        <v>45585.99999999999</v>
-      </c>
-      <c r="B48" t="n">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="2" t="n">
-        <v>45599.99999999999</v>
-      </c>
-      <c r="B49" t="n">
         <v>40</v>
       </c>
     </row>
@@ -886,7 +870,7 @@
         <v>45138.99999999999</v>
       </c>
       <c r="B4" t="n">
-        <v>320</v>
+        <v>190</v>
       </c>
     </row>
     <row r="5">

--- a/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
@@ -9,6 +9,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Weekly Quantity" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Monthly Trend" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PO Forecast" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -446,7 +447,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Weekly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -845,7 +846,7 @@
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Requested quantity</t>
+          <t>Monthly_PO_Qty</t>
         </is>
       </c>
     </row>
@@ -975,6 +976,803 @@
       </c>
       <c r="B17" t="n">
         <v>200</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D55"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>ds</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>PO_Forecast</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_lower</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>yhat_upper</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>45060.99999999999</v>
+      </c>
+      <c r="B2" t="n">
+        <v>40</v>
+      </c>
+      <c r="C2" t="n">
+        <v>-31.6307078657743</v>
+      </c>
+      <c r="D2" t="n">
+        <v>104.8908076813847</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>45067.99999999999</v>
+      </c>
+      <c r="B3" t="n">
+        <v>40</v>
+      </c>
+      <c r="C3" t="n">
+        <v>-27.53200517609202</v>
+      </c>
+      <c r="D3" t="n">
+        <v>109.1763182659417</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>45074.99999999999</v>
+      </c>
+      <c r="B4" t="n">
+        <v>40</v>
+      </c>
+      <c r="C4" t="n">
+        <v>-27.83675379159009</v>
+      </c>
+      <c r="D4" t="n">
+        <v>107.2387939751716</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>45081.99999999999</v>
+      </c>
+      <c r="B5" t="n">
+        <v>40</v>
+      </c>
+      <c r="C5" t="n">
+        <v>-28.01702101728591</v>
+      </c>
+      <c r="D5" t="n">
+        <v>110.9160831714085</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>45088.99999999999</v>
+      </c>
+      <c r="B6" t="n">
+        <v>41</v>
+      </c>
+      <c r="C6" t="n">
+        <v>-23.71912317669854</v>
+      </c>
+      <c r="D6" t="n">
+        <v>109.5331256565863</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>45095.99999999999</v>
+      </c>
+      <c r="B7" t="n">
+        <v>41</v>
+      </c>
+      <c r="C7" t="n">
+        <v>-23.82315247235982</v>
+      </c>
+      <c r="D7" t="n">
+        <v>111.2422423428962</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>45102.99999999999</v>
+      </c>
+      <c r="B8" t="n">
+        <v>41</v>
+      </c>
+      <c r="C8" t="n">
+        <v>-26.40159494667416</v>
+      </c>
+      <c r="D8" t="n">
+        <v>109.3890377466603</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>45109.99999999999</v>
+      </c>
+      <c r="B9" t="n">
+        <v>41</v>
+      </c>
+      <c r="C9" t="n">
+        <v>-28.02056293934662</v>
+      </c>
+      <c r="D9" t="n">
+        <v>106.9661910603202</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>45116.99999999999</v>
+      </c>
+      <c r="B10" t="n">
+        <v>42</v>
+      </c>
+      <c r="C10" t="n">
+        <v>-25.38562177186942</v>
+      </c>
+      <c r="D10" t="n">
+        <v>111.2873907078682</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>45137.99999999999</v>
+      </c>
+      <c r="B11" t="n">
+        <v>42</v>
+      </c>
+      <c r="C11" t="n">
+        <v>-26.79562148563044</v>
+      </c>
+      <c r="D11" t="n">
+        <v>104.2504740051727</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>45186.99999999999</v>
+      </c>
+      <c r="B12" t="n">
+        <v>44</v>
+      </c>
+      <c r="C12" t="n">
+        <v>-26.63836822762855</v>
+      </c>
+      <c r="D12" t="n">
+        <v>111.8232931581874</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>45207.99999999999</v>
+      </c>
+      <c r="B13" t="n">
+        <v>45</v>
+      </c>
+      <c r="C13" t="n">
+        <v>-19.17052986516014</v>
+      </c>
+      <c r="D13" t="n">
+        <v>111.3450184967649</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>45214.99999999999</v>
+      </c>
+      <c r="B14" t="n">
+        <v>45</v>
+      </c>
+      <c r="C14" t="n">
+        <v>-23.3900389608616</v>
+      </c>
+      <c r="D14" t="n">
+        <v>112.8589671933831</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>45221.99999999999</v>
+      </c>
+      <c r="B15" t="n">
+        <v>45</v>
+      </c>
+      <c r="C15" t="n">
+        <v>-22.14933929441103</v>
+      </c>
+      <c r="D15" t="n">
+        <v>107.3707306468695</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>45228.99999999999</v>
+      </c>
+      <c r="B16" t="n">
+        <v>45</v>
+      </c>
+      <c r="C16" t="n">
+        <v>-25.1210130608463</v>
+      </c>
+      <c r="D16" t="n">
+        <v>108.3978529485566</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>45242.99999999999</v>
+      </c>
+      <c r="B17" t="n">
+        <v>46</v>
+      </c>
+      <c r="C17" t="n">
+        <v>-22.52706699764084</v>
+      </c>
+      <c r="D17" t="n">
+        <v>114.309330293307</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>45249.99999999999</v>
+      </c>
+      <c r="B18" t="n">
+        <v>46</v>
+      </c>
+      <c r="C18" t="n">
+        <v>-20.78435061896659</v>
+      </c>
+      <c r="D18" t="n">
+        <v>114.3346438035721</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>45256.99999999999</v>
+      </c>
+      <c r="B19" t="n">
+        <v>46</v>
+      </c>
+      <c r="C19" t="n">
+        <v>-16.17492165631649</v>
+      </c>
+      <c r="D19" t="n">
+        <v>114.0327601253962</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>45270.99999999999</v>
+      </c>
+      <c r="B20" t="n">
+        <v>47</v>
+      </c>
+      <c r="C20" t="n">
+        <v>-17.1798324946428</v>
+      </c>
+      <c r="D20" t="n">
+        <v>112.021983848564</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>45277.99999999999</v>
+      </c>
+      <c r="B21" t="n">
+        <v>47</v>
+      </c>
+      <c r="C21" t="n">
+        <v>-22.63399391621601</v>
+      </c>
+      <c r="D21" t="n">
+        <v>110.6769202831366</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>45298.99999999999</v>
+      </c>
+      <c r="B22" t="n">
+        <v>48</v>
+      </c>
+      <c r="C22" t="n">
+        <v>-20.02147788821997</v>
+      </c>
+      <c r="D22" t="n">
+        <v>114.1442030371193</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>45305.99999999999</v>
+      </c>
+      <c r="B23" t="n">
+        <v>48</v>
+      </c>
+      <c r="C23" t="n">
+        <v>-21.48287389853882</v>
+      </c>
+      <c r="D23" t="n">
+        <v>115.0343390358398</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>45312.99999999999</v>
+      </c>
+      <c r="B24" t="n">
+        <v>48</v>
+      </c>
+      <c r="C24" t="n">
+        <v>-15.16310028943466</v>
+      </c>
+      <c r="D24" t="n">
+        <v>115.3843580693732</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>45326.99999999999</v>
+      </c>
+      <c r="B25" t="n">
+        <v>49</v>
+      </c>
+      <c r="C25" t="n">
+        <v>-19.85347674603991</v>
+      </c>
+      <c r="D25" t="n">
+        <v>112.8557616841222</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>45333.99999999999</v>
+      </c>
+      <c r="B26" t="n">
+        <v>49</v>
+      </c>
+      <c r="C26" t="n">
+        <v>-21.19252856000998</v>
+      </c>
+      <c r="D26" t="n">
+        <v>111.3570131814147</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>45340.99999999999</v>
+      </c>
+      <c r="B27" t="n">
+        <v>49</v>
+      </c>
+      <c r="C27" t="n">
+        <v>-22.75134050406884</v>
+      </c>
+      <c r="D27" t="n">
+        <v>113.2752754165414</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>45347.99999999999</v>
+      </c>
+      <c r="B28" t="n">
+        <v>49</v>
+      </c>
+      <c r="C28" t="n">
+        <v>-16.66219135880507</v>
+      </c>
+      <c r="D28" t="n">
+        <v>120.0544461056972</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>45354.99999999999</v>
+      </c>
+      <c r="B29" t="n">
+        <v>50</v>
+      </c>
+      <c r="C29" t="n">
+        <v>-21.18636076558043</v>
+      </c>
+      <c r="D29" t="n">
+        <v>113.2394039712714</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>45361.99999999999</v>
+      </c>
+      <c r="B30" t="n">
+        <v>50</v>
+      </c>
+      <c r="C30" t="n">
+        <v>-19.48888187425717</v>
+      </c>
+      <c r="D30" t="n">
+        <v>114.2249445341996</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>45368.99999999999</v>
+      </c>
+      <c r="B31" t="n">
+        <v>50</v>
+      </c>
+      <c r="C31" t="n">
+        <v>-16.48924792807441</v>
+      </c>
+      <c r="D31" t="n">
+        <v>118.9555351564276</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>45375.99999999999</v>
+      </c>
+      <c r="B32" t="n">
+        <v>50</v>
+      </c>
+      <c r="C32" t="n">
+        <v>-17.27787944615373</v>
+      </c>
+      <c r="D32" t="n">
+        <v>118.3174808266847</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>45382.99999999999</v>
+      </c>
+      <c r="B33" t="n">
+        <v>51</v>
+      </c>
+      <c r="C33" t="n">
+        <v>-19.44981881659761</v>
+      </c>
+      <c r="D33" t="n">
+        <v>116.5666991282313</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>45389.99999999999</v>
+      </c>
+      <c r="B34" t="n">
+        <v>51</v>
+      </c>
+      <c r="C34" t="n">
+        <v>-15.68021972419508</v>
+      </c>
+      <c r="D34" t="n">
+        <v>114.2928210741459</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>45396.99999999999</v>
+      </c>
+      <c r="B35" t="n">
+        <v>51</v>
+      </c>
+      <c r="C35" t="n">
+        <v>-18.0308421315093</v>
+      </c>
+      <c r="D35" t="n">
+        <v>118.095954465014</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>45410.99999999999</v>
+      </c>
+      <c r="B36" t="n">
+        <v>52</v>
+      </c>
+      <c r="C36" t="n">
+        <v>-20.26477465523827</v>
+      </c>
+      <c r="D36" t="n">
+        <v>119.8622007493068</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>45417.99999999999</v>
+      </c>
+      <c r="B37" t="n">
+        <v>52</v>
+      </c>
+      <c r="C37" t="n">
+        <v>-17.09044178576201</v>
+      </c>
+      <c r="D37" t="n">
+        <v>120.4151405881365</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>45424.99999999999</v>
+      </c>
+      <c r="B38" t="n">
+        <v>52</v>
+      </c>
+      <c r="C38" t="n">
+        <v>-20.3958589585968</v>
+      </c>
+      <c r="D38" t="n">
+        <v>115.8493988069367</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>45459.99999999999</v>
+      </c>
+      <c r="B39" t="n">
+        <v>53</v>
+      </c>
+      <c r="C39" t="n">
+        <v>-13.16491665693214</v>
+      </c>
+      <c r="D39" t="n">
+        <v>115.9959379090654</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>45522.99999999999</v>
+      </c>
+      <c r="B40" t="n">
+        <v>55</v>
+      </c>
+      <c r="C40" t="n">
+        <v>-9.524910999788826</v>
+      </c>
+      <c r="D40" t="n">
+        <v>120.5763475166941</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>45550.99999999999</v>
+      </c>
+      <c r="B41" t="n">
+        <v>56</v>
+      </c>
+      <c r="C41" t="n">
+        <v>-12.83393130374947</v>
+      </c>
+      <c r="D41" t="n">
+        <v>124.9427837682454</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>45557.99999999999</v>
+      </c>
+      <c r="B42" t="n">
+        <v>57</v>
+      </c>
+      <c r="C42" t="n">
+        <v>-13.62461734736682</v>
+      </c>
+      <c r="D42" t="n">
+        <v>125.1116041722581</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>45564.99999999999</v>
+      </c>
+      <c r="B43" t="n">
+        <v>57</v>
+      </c>
+      <c r="C43" t="n">
+        <v>-7.600480929066136</v>
+      </c>
+      <c r="D43" t="n">
+        <v>124.5917216797524</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>45571.99999999999</v>
+      </c>
+      <c r="B44" t="n">
+        <v>57</v>
+      </c>
+      <c r="C44" t="n">
+        <v>-13.17821025120075</v>
+      </c>
+      <c r="D44" t="n">
+        <v>121.9966608913311</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>45578.99999999999</v>
+      </c>
+      <c r="B45" t="n">
+        <v>57</v>
+      </c>
+      <c r="C45" t="n">
+        <v>-10.75313675296103</v>
+      </c>
+      <c r="D45" t="n">
+        <v>125.1363124183471</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>45585.99999999999</v>
+      </c>
+      <c r="B46" t="n">
+        <v>57</v>
+      </c>
+      <c r="C46" t="n">
+        <v>-6.410320510393823</v>
+      </c>
+      <c r="D46" t="n">
+        <v>123.8581620516149</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45599.99999999999</v>
+      </c>
+      <c r="B47" t="n">
+        <v>58</v>
+      </c>
+      <c r="C47" t="n">
+        <v>-4.471589852048992</v>
+      </c>
+      <c r="D47" t="n">
+        <v>129.7372753970445</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>45606.99999999999</v>
+      </c>
+      <c r="B48" t="n">
+        <v>58</v>
+      </c>
+      <c r="C48" t="n">
+        <v>-11.41635087608994</v>
+      </c>
+      <c r="D48" t="n">
+        <v>127.6861734977909</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>45613.99999999999</v>
+      </c>
+      <c r="B49" t="n">
+        <v>58</v>
+      </c>
+      <c r="C49" t="n">
+        <v>-8.515205219869808</v>
+      </c>
+      <c r="D49" t="n">
+        <v>124.8538464043907</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>45620.99999999999</v>
+      </c>
+      <c r="B50" t="n">
+        <v>59</v>
+      </c>
+      <c r="C50" t="n">
+        <v>-12.63345069058207</v>
+      </c>
+      <c r="D50" t="n">
+        <v>123.0805460901917</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>45627.99999999999</v>
+      </c>
+      <c r="B51" t="n">
+        <v>59</v>
+      </c>
+      <c r="C51" t="n">
+        <v>-15.20740224643026</v>
+      </c>
+      <c r="D51" t="n">
+        <v>125.6013433772248</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>45634.99999999999</v>
+      </c>
+      <c r="B52" t="n">
+        <v>59</v>
+      </c>
+      <c r="C52" t="n">
+        <v>-8.936896782698804</v>
+      </c>
+      <c r="D52" t="n">
+        <v>126.3802796119275</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>45641.99999999999</v>
+      </c>
+      <c r="B53" t="n">
+        <v>59</v>
+      </c>
+      <c r="C53" t="n">
+        <v>-3.487277976154745</v>
+      </c>
+      <c r="D53" t="n">
+        <v>126.7550357560466</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>45648.99999999999</v>
+      </c>
+      <c r="B54" t="n">
+        <v>60</v>
+      </c>
+      <c r="C54" t="n">
+        <v>-5.282236966446</v>
+      </c>
+      <c r="D54" t="n">
+        <v>130.8925269734979</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>45655.99999999999</v>
+      </c>
+      <c r="B55" t="n">
+        <v>60</v>
+      </c>
+      <c r="C55" t="n">
+        <v>-3.499108669134637</v>
+      </c>
+      <c r="D55" t="n">
+        <v>130.7208411393327</v>
       </c>
     </row>
   </sheetData>

--- a/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
+++ b/po_analysis_by_asin/B0C4CKCRYW_po_data.xlsx
@@ -989,7 +989,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D55"/>
+  <dimension ref="A1:B55"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1008,16 +1008,6 @@
           <t>PO_Forecast</t>
         </is>
       </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_lower</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>yhat_upper</t>
-        </is>
-      </c>
     </row>
     <row r="2">
       <c r="A2" s="2" t="n">
@@ -1026,12 +1016,6 @@
       <c r="B2" t="n">
         <v>40</v>
       </c>
-      <c r="C2" t="n">
-        <v>-31.6307078657743</v>
-      </c>
-      <c r="D2" t="n">
-        <v>104.8908076813847</v>
-      </c>
     </row>
     <row r="3">
       <c r="A3" s="2" t="n">
@@ -1040,12 +1024,6 @@
       <c r="B3" t="n">
         <v>40</v>
       </c>
-      <c r="C3" t="n">
-        <v>-27.53200517609202</v>
-      </c>
-      <c r="D3" t="n">
-        <v>109.1763182659417</v>
-      </c>
     </row>
     <row r="4">
       <c r="A4" s="2" t="n">
@@ -1054,12 +1032,6 @@
       <c r="B4" t="n">
         <v>40</v>
       </c>
-      <c r="C4" t="n">
-        <v>-27.83675379159009</v>
-      </c>
-      <c r="D4" t="n">
-        <v>107.2387939751716</v>
-      </c>
     </row>
     <row r="5">
       <c r="A5" s="2" t="n">
@@ -1068,12 +1040,6 @@
       <c r="B5" t="n">
         <v>40</v>
       </c>
-      <c r="C5" t="n">
-        <v>-28.01702101728591</v>
-      </c>
-      <c r="D5" t="n">
-        <v>110.9160831714085</v>
-      </c>
     </row>
     <row r="6">
       <c r="A6" s="2" t="n">
@@ -1082,12 +1048,6 @@
       <c r="B6" t="n">
         <v>41</v>
       </c>
-      <c r="C6" t="n">
-        <v>-23.71912317669854</v>
-      </c>
-      <c r="D6" t="n">
-        <v>109.5331256565863</v>
-      </c>
     </row>
     <row r="7">
       <c r="A7" s="2" t="n">
@@ -1096,12 +1056,6 @@
       <c r="B7" t="n">
         <v>41</v>
       </c>
-      <c r="C7" t="n">
-        <v>-23.82315247235982</v>
-      </c>
-      <c r="D7" t="n">
-        <v>111.2422423428962</v>
-      </c>
     </row>
     <row r="8">
       <c r="A8" s="2" t="n">
@@ -1110,12 +1064,6 @@
       <c r="B8" t="n">
         <v>41</v>
       </c>
-      <c r="C8" t="n">
-        <v>-26.40159494667416</v>
-      </c>
-      <c r="D8" t="n">
-        <v>109.3890377466603</v>
-      </c>
     </row>
     <row r="9">
       <c r="A9" s="2" t="n">
@@ -1124,12 +1072,6 @@
       <c r="B9" t="n">
         <v>41</v>
       </c>
-      <c r="C9" t="n">
-        <v>-28.02056293934662</v>
-      </c>
-      <c r="D9" t="n">
-        <v>106.9661910603202</v>
-      </c>
     </row>
     <row r="10">
       <c r="A10" s="2" t="n">
@@ -1138,12 +1080,6 @@
       <c r="B10" t="n">
         <v>42</v>
       </c>
-      <c r="C10" t="n">
-        <v>-25.38562177186942</v>
-      </c>
-      <c r="D10" t="n">
-        <v>111.2873907078682</v>
-      </c>
     </row>
     <row r="11">
       <c r="A11" s="2" t="n">
@@ -1152,12 +1088,6 @@
       <c r="B11" t="n">
         <v>42</v>
       </c>
-      <c r="C11" t="n">
-        <v>-26.79562148563044</v>
-      </c>
-      <c r="D11" t="n">
-        <v>104.2504740051727</v>
-      </c>
     </row>
     <row r="12">
       <c r="A12" s="2" t="n">
@@ -1166,12 +1096,6 @@
       <c r="B12" t="n">
         <v>44</v>
       </c>
-      <c r="C12" t="n">
-        <v>-26.63836822762855</v>
-      </c>
-      <c r="D12" t="n">
-        <v>111.8232931581874</v>
-      </c>
     </row>
     <row r="13">
       <c r="A13" s="2" t="n">
@@ -1180,12 +1104,6 @@
       <c r="B13" t="n">
         <v>45</v>
       </c>
-      <c r="C13" t="n">
-        <v>-19.17052986516014</v>
-      </c>
-      <c r="D13" t="n">
-        <v>111.3450184967649</v>
-      </c>
     </row>
     <row r="14">
       <c r="A14" s="2" t="n">
@@ -1194,12 +1112,6 @@
       <c r="B14" t="n">
         <v>45</v>
       </c>
-      <c r="C14" t="n">
-        <v>-23.3900389608616</v>
-      </c>
-      <c r="D14" t="n">
-        <v>112.8589671933831</v>
-      </c>
     </row>
     <row r="15">
       <c r="A15" s="2" t="n">
@@ -1208,12 +1120,6 @@
       <c r="B15" t="n">
         <v>45</v>
       </c>
-      <c r="C15" t="n">
-        <v>-22.14933929441103</v>
-      </c>
-      <c r="D15" t="n">
-        <v>107.3707306468695</v>
-      </c>
     </row>
     <row r="16">
       <c r="A16" s="2" t="n">
@@ -1222,12 +1128,6 @@
       <c r="B16" t="n">
         <v>45</v>
       </c>
-      <c r="C16" t="n">
-        <v>-25.1210130608463</v>
-      </c>
-      <c r="D16" t="n">
-        <v>108.3978529485566</v>
-      </c>
     </row>
     <row r="17">
       <c r="A17" s="2" t="n">
@@ -1236,12 +1136,6 @@
       <c r="B17" t="n">
         <v>46</v>
       </c>
-      <c r="C17" t="n">
-        <v>-22.52706699764084</v>
-      </c>
-      <c r="D17" t="n">
-        <v>114.309330293307</v>
-      </c>
     </row>
     <row r="18">
       <c r="A18" s="2" t="n">
@@ -1250,12 +1144,6 @@
       <c r="B18" t="n">
         <v>46</v>
       </c>
-      <c r="C18" t="n">
-        <v>-20.78435061896659</v>
-      </c>
-      <c r="D18" t="n">
-        <v>114.3346438035721</v>
-      </c>
     </row>
     <row r="19">
       <c r="A19" s="2" t="n">
@@ -1264,12 +1152,6 @@
       <c r="B19" t="n">
         <v>46</v>
       </c>
-      <c r="C19" t="n">
-        <v>-16.17492165631649</v>
-      </c>
-      <c r="D19" t="n">
-        <v>114.0327601253962</v>
-      </c>
     </row>
     <row r="20">
       <c r="A20" s="2" t="n">
@@ -1278,12 +1160,6 @@
       <c r="B20" t="n">
         <v>47</v>
       </c>
-      <c r="C20" t="n">
-        <v>-17.1798324946428</v>
-      </c>
-      <c r="D20" t="n">
-        <v>112.021983848564</v>
-      </c>
     </row>
     <row r="21">
       <c r="A21" s="2" t="n">
@@ -1292,12 +1168,6 @@
       <c r="B21" t="n">
         <v>47</v>
       </c>
-      <c r="C21" t="n">
-        <v>-22.63399391621601</v>
-      </c>
-      <c r="D21" t="n">
-        <v>110.6769202831366</v>
-      </c>
     </row>
     <row r="22">
       <c r="A22" s="2" t="n">
@@ -1306,12 +1176,6 @@
       <c r="B22" t="n">
         <v>48</v>
       </c>
-      <c r="C22" t="n">
-        <v>-20.02147788821997</v>
-      </c>
-      <c r="D22" t="n">
-        <v>114.1442030371193</v>
-      </c>
     </row>
     <row r="23">
       <c r="A23" s="2" t="n">
@@ -1320,12 +1184,6 @@
       <c r="B23" t="n">
         <v>48</v>
       </c>
-      <c r="C23" t="n">
-        <v>-21.48287389853882</v>
-      </c>
-      <c r="D23" t="n">
-        <v>115.0343390358398</v>
-      </c>
     </row>
     <row r="24">
       <c r="A24" s="2" t="n">
@@ -1334,12 +1192,6 @@
       <c r="B24" t="n">
         <v>48</v>
       </c>
-      <c r="C24" t="n">
-        <v>-15.16310028943466</v>
-      </c>
-      <c r="D24" t="n">
-        <v>115.3843580693732</v>
-      </c>
     </row>
     <row r="25">
       <c r="A25" s="2" t="n">
@@ -1348,12 +1200,6 @@
       <c r="B25" t="n">
         <v>49</v>
       </c>
-      <c r="C25" t="n">
-        <v>-19.85347674603991</v>
-      </c>
-      <c r="D25" t="n">
-        <v>112.8557616841222</v>
-      </c>
     </row>
     <row r="26">
       <c r="A26" s="2" t="n">
@@ -1362,12 +1208,6 @@
       <c r="B26" t="n">
         <v>49</v>
       </c>
-      <c r="C26" t="n">
-        <v>-21.19252856000998</v>
-      </c>
-      <c r="D26" t="n">
-        <v>111.3570131814147</v>
-      </c>
     </row>
     <row r="27">
       <c r="A27" s="2" t="n">
@@ -1376,12 +1216,6 @@
       <c r="B27" t="n">
         <v>49</v>
       </c>
-      <c r="C27" t="n">
-        <v>-22.75134050406884</v>
-      </c>
-      <c r="D27" t="n">
-        <v>113.2752754165414</v>
-      </c>
     </row>
     <row r="28">
       <c r="A28" s="2" t="n">
@@ -1390,12 +1224,6 @@
       <c r="B28" t="n">
         <v>49</v>
       </c>
-      <c r="C28" t="n">
-        <v>-16.66219135880507</v>
-      </c>
-      <c r="D28" t="n">
-        <v>120.0544461056972</v>
-      </c>
     </row>
     <row r="29">
       <c r="A29" s="2" t="n">
@@ -1404,12 +1232,6 @@
       <c r="B29" t="n">
         <v>50</v>
       </c>
-      <c r="C29" t="n">
-        <v>-21.18636076558043</v>
-      </c>
-      <c r="D29" t="n">
-        <v>113.2394039712714</v>
-      </c>
     </row>
     <row r="30">
       <c r="A30" s="2" t="n">
@@ -1418,12 +1240,6 @@
       <c r="B30" t="n">
         <v>50</v>
       </c>
-      <c r="C30" t="n">
-        <v>-19.48888187425717</v>
-      </c>
-      <c r="D30" t="n">
-        <v>114.2249445341996</v>
-      </c>
     </row>
     <row r="31">
       <c r="A31" s="2" t="n">
@@ -1432,12 +1248,6 @@
       <c r="B31" t="n">
         <v>50</v>
       </c>
-      <c r="C31" t="n">
-        <v>-16.48924792807441</v>
-      </c>
-      <c r="D31" t="n">
-        <v>118.9555351564276</v>
-      </c>
     </row>
     <row r="32">
       <c r="A32" s="2" t="n">
@@ -1446,12 +1256,6 @@
       <c r="B32" t="n">
         <v>50</v>
       </c>
-      <c r="C32" t="n">
-        <v>-17.27787944615373</v>
-      </c>
-      <c r="D32" t="n">
-        <v>118.3174808266847</v>
-      </c>
     </row>
     <row r="33">
       <c r="A33" s="2" t="n">
@@ -1460,12 +1264,6 @@
       <c r="B33" t="n">
         <v>51</v>
       </c>
-      <c r="C33" t="n">
-        <v>-19.44981881659761</v>
-      </c>
-      <c r="D33" t="n">
-        <v>116.5666991282313</v>
-      </c>
     </row>
     <row r="34">
       <c r="A34" s="2" t="n">
@@ -1474,12 +1272,6 @@
       <c r="B34" t="n">
         <v>51</v>
       </c>
-      <c r="C34" t="n">
-        <v>-15.68021972419508</v>
-      </c>
-      <c r="D34" t="n">
-        <v>114.2928210741459</v>
-      </c>
     </row>
     <row r="35">
       <c r="A35" s="2" t="n">
@@ -1488,12 +1280,6 @@
       <c r="B35" t="n">
         <v>51</v>
       </c>
-      <c r="C35" t="n">
-        <v>-18.0308421315093</v>
-      </c>
-      <c r="D35" t="n">
-        <v>118.095954465014</v>
-      </c>
     </row>
     <row r="36">
       <c r="A36" s="2" t="n">
@@ -1502,12 +1288,6 @@
       <c r="B36" t="n">
         <v>52</v>
       </c>
-      <c r="C36" t="n">
-        <v>-20.26477465523827</v>
-      </c>
-      <c r="D36" t="n">
-        <v>119.8622007493068</v>
-      </c>
     </row>
     <row r="37">
       <c r="A37" s="2" t="n">
@@ -1516,12 +1296,6 @@
       <c r="B37" t="n">
         <v>52</v>
       </c>
-      <c r="C37" t="n">
-        <v>-17.09044178576201</v>
-      </c>
-      <c r="D37" t="n">
-        <v>120.4151405881365</v>
-      </c>
     </row>
     <row r="38">
       <c r="A38" s="2" t="n">
@@ -1530,12 +1304,6 @@
       <c r="B38" t="n">
         <v>52</v>
       </c>
-      <c r="C38" t="n">
-        <v>-20.3958589585968</v>
-      </c>
-      <c r="D38" t="n">
-        <v>115.8493988069367</v>
-      </c>
     </row>
     <row r="39">
       <c r="A39" s="2" t="n">
@@ -1544,12 +1312,6 @@
       <c r="B39" t="n">
         <v>53</v>
       </c>
-      <c r="C39" t="n">
-        <v>-13.16491665693214</v>
-      </c>
-      <c r="D39" t="n">
-        <v>115.9959379090654</v>
-      </c>
     </row>
     <row r="40">
       <c r="A40" s="2" t="n">
@@ -1558,12 +1320,6 @@
       <c r="B40" t="n">
         <v>55</v>
       </c>
-      <c r="C40" t="n">
-        <v>-9.524910999788826</v>
-      </c>
-      <c r="D40" t="n">
-        <v>120.5763475166941</v>
-      </c>
     </row>
     <row r="41">
       <c r="A41" s="2" t="n">
@@ -1572,12 +1328,6 @@
       <c r="B41" t="n">
         <v>56</v>
       </c>
-      <c r="C41" t="n">
-        <v>-12.83393130374947</v>
-      </c>
-      <c r="D41" t="n">
-        <v>124.9427837682454</v>
-      </c>
     </row>
     <row r="42">
       <c r="A42" s="2" t="n">
@@ -1586,12 +1336,6 @@
       <c r="B42" t="n">
         <v>57</v>
       </c>
-      <c r="C42" t="n">
-        <v>-13.62461734736682</v>
-      </c>
-      <c r="D42" t="n">
-        <v>125.1116041722581</v>
-      </c>
     </row>
     <row r="43">
       <c r="A43" s="2" t="n">
@@ -1600,12 +1344,6 @@
       <c r="B43" t="n">
         <v>57</v>
       </c>
-      <c r="C43" t="n">
-        <v>-7.600480929066136</v>
-      </c>
-      <c r="D43" t="n">
-        <v>124.5917216797524</v>
-      </c>
     </row>
     <row r="44">
       <c r="A44" s="2" t="n">
@@ -1614,12 +1352,6 @@
       <c r="B44" t="n">
         <v>57</v>
       </c>
-      <c r="C44" t="n">
-        <v>-13.17821025120075</v>
-      </c>
-      <c r="D44" t="n">
-        <v>121.9966608913311</v>
-      </c>
     </row>
     <row r="45">
       <c r="A45" s="2" t="n">
@@ -1628,12 +1360,6 @@
       <c r="B45" t="n">
         <v>57</v>
       </c>
-      <c r="C45" t="n">
-        <v>-10.75313675296103</v>
-      </c>
-      <c r="D45" t="n">
-        <v>125.1363124183471</v>
-      </c>
     </row>
     <row r="46">
       <c r="A46" s="2" t="n">
@@ -1642,12 +1368,6 @@
       <c r="B46" t="n">
         <v>57</v>
       </c>
-      <c r="C46" t="n">
-        <v>-6.410320510393823</v>
-      </c>
-      <c r="D46" t="n">
-        <v>123.8581620516149</v>
-      </c>
     </row>
     <row r="47">
       <c r="A47" s="2" t="n">
@@ -1656,12 +1376,6 @@
       <c r="B47" t="n">
         <v>58</v>
       </c>
-      <c r="C47" t="n">
-        <v>-4.471589852048992</v>
-      </c>
-      <c r="D47" t="n">
-        <v>129.7372753970445</v>
-      </c>
     </row>
     <row r="48">
       <c r="A48" s="2" t="n">
@@ -1670,12 +1384,6 @@
       <c r="B48" t="n">
         <v>58</v>
       </c>
-      <c r="C48" t="n">
-        <v>-11.41635087608994</v>
-      </c>
-      <c r="D48" t="n">
-        <v>127.6861734977909</v>
-      </c>
     </row>
     <row r="49">
       <c r="A49" s="2" t="n">
@@ -1684,12 +1392,6 @@
       <c r="B49" t="n">
         <v>58</v>
       </c>
-      <c r="C49" t="n">
-        <v>-8.515205219869808</v>
-      </c>
-      <c r="D49" t="n">
-        <v>124.8538464043907</v>
-      </c>
     </row>
     <row r="50">
       <c r="A50" s="2" t="n">
@@ -1698,12 +1400,6 @@
       <c r="B50" t="n">
         <v>59</v>
       </c>
-      <c r="C50" t="n">
-        <v>-12.63345069058207</v>
-      </c>
-      <c r="D50" t="n">
-        <v>123.0805460901917</v>
-      </c>
     </row>
     <row r="51">
       <c r="A51" s="2" t="n">
@@ -1712,12 +1408,6 @@
       <c r="B51" t="n">
         <v>59</v>
       </c>
-      <c r="C51" t="n">
-        <v>-15.20740224643026</v>
-      </c>
-      <c r="D51" t="n">
-        <v>125.6013433772248</v>
-      </c>
     </row>
     <row r="52">
       <c r="A52" s="2" t="n">
@@ -1726,12 +1416,6 @@
       <c r="B52" t="n">
         <v>59</v>
       </c>
-      <c r="C52" t="n">
-        <v>-8.936896782698804</v>
-      </c>
-      <c r="D52" t="n">
-        <v>126.3802796119275</v>
-      </c>
     </row>
     <row r="53">
       <c r="A53" s="2" t="n">
@@ -1740,12 +1424,6 @@
       <c r="B53" t="n">
         <v>59</v>
       </c>
-      <c r="C53" t="n">
-        <v>-3.487277976154745</v>
-      </c>
-      <c r="D53" t="n">
-        <v>126.7550357560466</v>
-      </c>
     </row>
     <row r="54">
       <c r="A54" s="2" t="n">
@@ -1754,12 +1432,6 @@
       <c r="B54" t="n">
         <v>60</v>
       </c>
-      <c r="C54" t="n">
-        <v>-5.282236966446</v>
-      </c>
-      <c r="D54" t="n">
-        <v>130.8925269734979</v>
-      </c>
     </row>
     <row r="55">
       <c r="A55" s="2" t="n">
@@ -1767,12 +1439,6 @@
       </c>
       <c r="B55" t="n">
         <v>60</v>
-      </c>
-      <c r="C55" t="n">
-        <v>-3.499108669134637</v>
-      </c>
-      <c r="D55" t="n">
-        <v>130.7208411393327</v>
       </c>
     </row>
   </sheetData>
